--- a/test_data/operations/electrical_requirements.xlsx
+++ b/test_data/operations/electrical_requirements.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\test_data\operations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>False</t>
   </si>
@@ -94,12 +99,15 @@
   </si>
   <si>
     <t>Max Current Speed for Inspections</t>
+  </si>
+  <si>
+    <t>Umbilical Cable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,6 +217,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -256,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,29 +514,29 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,7 +589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -635,7 +646,7 @@
       <c r="T2" s="1"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -691,7 +702,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -747,26 +758,63 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -785,7 +833,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -804,7 +852,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -815,7 +863,7 @@
       <c r="I10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -840,26 +888,26 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -919,30 +967,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -989,7 +1037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1036,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -1083,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -1127,6 +1175,53 @@
         <v>15</v>
       </c>
       <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15</v>
+      </c>
+      <c r="O5" s="1">
         <v>1</v>
       </c>
     </row>

--- a/test_data/operations/electrical_requirements.xlsx
+++ b/test_data/operations/electrical_requirements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>False</t>
   </si>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,15 +882,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
@@ -907,7 +907,7 @@
     <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -959,6 +959,231 @@
       <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/operations/electrical_requirements.xlsx
+++ b/test_data/operations/electrical_requirements.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\test_data\operations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\test_data\operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78DCAC0-3B0A-4B4A-86B8-2582617DBD95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="22980" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
     <sheet name="Replacement" sheetId="2" r:id="rId2"/>
     <sheet name="Inspections" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>False</t>
   </si>
@@ -102,12 +103,15 @@
   </si>
   <si>
     <t>Umbilical Cable</t>
+  </si>
+  <si>
+    <t>Interruptible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,11 +209,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Explanatory Text 2" xfId="2"/>
+    <cellStyle name="Explanatory Text 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,6 +304,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,33 +548,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -589,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -646,7 +684,7 @@
       <c r="T2" s="1"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -702,7 +740,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -758,7 +796,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -814,7 +852,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -833,7 +871,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -852,7 +890,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -863,7 +901,7 @@
       <c r="I10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -881,33 +919,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -918,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -960,7 +998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1017,7 +1055,7 @@
       <c r="T2" s="1"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1111,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1167,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -1191,31 +1229,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1309,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -1356,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -1403,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>

--- a/test_data/operations/electrical_requirements.xlsx
+++ b/test_data/operations/electrical_requirements.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\test_data\operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78DCAC0-3B0A-4B4A-86B8-2582617DBD95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A49CE1D-2D05-495A-9247-0D05CE7E5DA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="22980" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="On-Site" sheetId="1" r:id="rId1"/>
     <sheet name="Replacement" sheetId="2" r:id="rId2"/>
     <sheet name="Inspections" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>False</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Access Duration</t>
-  </si>
-  <si>
-    <t>Interruptable</t>
   </si>
   <si>
     <t>Crew Preparation Delay</t>
@@ -551,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,51 +582,51 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -686,7 +683,7 @@
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -742,7 +739,7 @@
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -798,7 +795,7 @@
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -922,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -956,51 +953,51 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -1057,7 +1054,7 @@
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1113,7 +1110,7 @@
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1169,7 +1166,7 @@
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1258,51 +1255,51 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1396,7 +1393,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1443,7 +1440,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
